--- a/SPPSApi/Doc/Template/FS1206_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1206_Export.xlsx
@@ -410,14 +410,15 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.59765625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
